--- a/ReportAutomation/Utilsheet.xlsx
+++ b/ReportAutomation/Utilsheet.xlsx
@@ -38,10 +38,10 @@
     <t>i-06d86faac5c4a9b86</t>
   </si>
   <si>
-    <t>8.19672131147541</t>
+    <t>19.8333333333333</t>
   </si>
   <si>
-    <t>0.6082433831138261</t>
+    <t>0.6192075236406779</t>
   </si>
   <si>
     <t>11.361873893937284</t>

--- a/ReportAutomation/Utilsheet.xlsx
+++ b/ReportAutomation/Utilsheet.xlsx
@@ -38,16 +38,16 @@
     <t>i-06d86faac5c4a9b86</t>
   </si>
   <si>
-    <t>19.8333333333333</t>
+    <t>8.85245901639285</t>
   </si>
   <si>
-    <t>0.6192075236406779</t>
+    <t>0.5963118486502759</t>
   </si>
   <si>
-    <t>11.361873893937284</t>
+    <t>11.724563043089221</t>
   </si>
   <si>
-    <t>11.117891582659398</t>
+    <t>11.463227902496357</t>
   </si>
   <si>
     <t>0</t>
